--- a/GUI + Reviews/202512/North America 500.xlsx
+++ b/GUI + Reviews/202512/North America 500.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{34E527B1-FAF0-454F-AD42-8D515510990E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77E6AD2A-3BD5-4265-AE01-77E92F986063}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F405D15-1F67-444A-9844-E5298E003E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{C525AA00-4FCF-495F-9824-6CA5449A4D2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D138A67F-84C4-4BC0-8AFA-01D380B2206E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="1519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="1522">
   <si>
     <t>Rank</t>
   </si>
@@ -1778,6 +1778,9 @@
     <t>US30063P1057</t>
   </si>
   <si>
+    <t>XNCM</t>
+  </si>
+  <si>
     <t>EXELON</t>
   </si>
   <si>
@@ -1916,12 +1919,15 @@
     <t>FISERV INC</t>
   </si>
   <si>
-    <t>MISSING</t>
+    <t>FISV-US</t>
   </si>
   <si>
     <t>US3377381088</t>
   </si>
   <si>
+    <t>XNAS</t>
+  </si>
+  <si>
     <t>FLEX LTD.</t>
   </si>
   <si>
@@ -2858,6 +2864,9 @@
     <t>US60937P1066</t>
   </si>
   <si>
+    <t>XNMS</t>
+  </si>
+  <si>
     <t>MONOLITHIC POWER SYS</t>
   </si>
   <si>
@@ -4373,6 +4382,9 @@
     <t>WALMART INC</t>
   </si>
   <si>
+    <t>WMT-US</t>
+  </si>
+  <si>
     <t>US9311421039</t>
   </si>
   <si>
@@ -4590,9 +4602,6 @@
   </si>
   <si>
     <t>US98980G1022</t>
-  </si>
-  <si>
-    <t>XNCM</t>
   </si>
 </sst>
 </file>
@@ -4911,23 +4920,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9652692E-A89A-4492-8421-9D4F7FEB4A7F}" name="Universe" displayName="Universe" ref="A1:N501" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N501" xr:uid="{9652692E-A89A-4492-8421-9D4F7FEB4A7F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EBCC9092-876D-4405-831F-C4BB81934348}" name="Universe" displayName="Universe" ref="A1:N501" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:N501" xr:uid="{EBCC9092-876D-4405-831F-C4BB81934348}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{77060794-54DA-4774-B7D2-B3DD38FB64CB}" name="Rank" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{0D00975B-3975-4838-A1AA-136B585ED682}" name="Name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{3FCA49AE-0E8A-4394-8325-60DF84BBE348}" name="Ticker" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{C460BD4E-C834-412B-84E6-3884395DED70}" name="ISIN" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{8D4D804E-71B7-4F96-B6DE-C0DDE7EC99AB}" name="Currency (Local)" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{8B92E005-24BE-4B7B-A347-ED01329DE256}" name="Price (EUR) " dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{2DC095FF-C30F-40CE-8A52-4D3A34A3905B}" name="NOSH" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{1C625CC6-FF4F-4981-90DA-206ABE10B848}" name="MIC" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{1224921E-98B2-4E03-B7D7-66F6BE525A85}" name="Sec Market Value (EUR)" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{984C5E1F-FFD1-4C99-ADB1-C03955F6BB74}" name="20 days aver. turn EUR" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{B82379EF-79FD-48DB-A8A9-D9E2163640AB}" name="6 month aver. turnover EUR" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{74C5578E-9BD0-4193-BA92-EF33674F51D0}" name="3 month average turnover EUR" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{0672A9A1-81DB-4817-A0AC-A20C2CE8BDB5}" name="3 months aver. Turnover USD" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{B6A4F6F0-F75A-4C26-9D99-C2CCF914F6E2}" name="12 month aver. turnover EUR" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{690587DC-D60D-4AB7-8BAF-C03E432CEF7C}" name="Rank" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{FFBB4689-6718-4A4A-9218-7DA94994DE38}" name="Name" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{1359BC2F-356C-419A-9656-70AC96FAE3CA}" name="Ticker" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{1B8E2264-4064-41E2-BBA6-EB53EE0DFF59}" name="ISIN" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{485D7A7C-C52F-4A3D-828F-F3497EAEE5C7}" name="Currency (Local)" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{10E53895-2F9D-499F-8D96-3A76661845FF}" name="Price (EUR) " dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{65CD208D-C700-4D8D-94C3-AAF3AFD21D43}" name="NOSH" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{5CFB7B29-3697-42EC-8366-4861A38EBD94}" name="MIC" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{01ECF942-A3A4-433E-8B1D-C1DDC6F4E904}" name="Sec Market Value (EUR)" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{5468DEC6-1FB1-4505-8B75-DF5F675F19A7}" name="20 days aver. turn EUR" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{DC41D166-CDEF-41A3-8DBC-1C3D91BD8E94}" name="6 month aver. turnover EUR" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{5AF8CA9A-1C37-4BE5-9B7C-00617681BE7C}" name="3 month average turnover EUR" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{46668793-52DF-4361-9EDC-6FD5C68C5CB8}" name="3 months aver. Turnover USD" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{F544B434-E3EF-480A-AED5-E0025378EF09}" name="12 month aver. turnover EUR" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5249,13 +5258,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CD3052-57D3-4EE7-8F0F-6785CFD35A66}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EBDD5B-3710-4246-9FFE-390D7FDF014B}">
   <dimension ref="A1:N501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13525,7 +13531,7 @@
         <v>189471300</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>1518</v>
+        <v>580</v>
       </c>
       <c r="I188" s="1">
         <v>16621.88</v>
@@ -13551,13 +13557,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>17</v>
@@ -13595,13 +13601,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>17</v>
@@ -13639,13 +13645,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>17</v>
@@ -13683,13 +13689,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>17</v>
@@ -13727,13 +13733,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>17</v>
@@ -13771,13 +13777,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>17</v>
@@ -13815,13 +13821,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>17</v>
@@ -13859,13 +13865,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>50</v>
@@ -13903,13 +13909,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>17</v>
@@ -13947,13 +13953,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>17</v>
@@ -13991,13 +13997,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>17</v>
@@ -14035,13 +14041,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>17</v>
@@ -14079,13 +14085,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>17</v>
@@ -14123,13 +14129,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>17</v>
@@ -14167,13 +14173,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>17</v>
@@ -14211,43 +14217,43 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="E204" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F204" s="1" t="e">
-        <v>#N/A</v>
+        <v>628</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F204" s="1">
+        <v>52.897449999999999</v>
       </c>
       <c r="G204" s="1">
         <v>537851870</v>
       </c>
-      <c r="H204" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I204" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J204" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K204" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L204" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M204" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N204" s="1" t="e">
-        <v>#N/A</v>
+      <c r="H204" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="I204" s="1">
+        <v>28451</v>
+      </c>
+      <c r="J204" s="1">
+        <v>567028017.66643703</v>
+      </c>
+      <c r="K204" s="1">
+        <v>694713607.47303104</v>
+      </c>
+      <c r="L204" s="1">
+        <v>665122089.180035</v>
+      </c>
+      <c r="M204" s="1">
+        <v>774518016.84478796</v>
+      </c>
+      <c r="N204" s="1">
+        <v>692049434.89533901</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
@@ -14255,13 +14261,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>17</v>
@@ -14299,13 +14305,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>17</v>
@@ -14343,13 +14349,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>17</v>
@@ -14387,13 +14393,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>17</v>
@@ -14431,13 +14437,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>50</v>
@@ -14475,13 +14481,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>50</v>
@@ -14519,13 +14525,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>17</v>
@@ -14563,13 +14569,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>17</v>
@@ -14607,13 +14613,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>17</v>
@@ -14651,13 +14657,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>17</v>
@@ -14695,13 +14701,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>17</v>
@@ -14739,13 +14745,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>17</v>
@@ -14783,13 +14789,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>17</v>
@@ -14827,13 +14833,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>17</v>
@@ -14871,13 +14877,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>17</v>
@@ -14915,13 +14921,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>17</v>
@@ -14959,13 +14965,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>17</v>
@@ -15003,13 +15009,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>17</v>
@@ -15047,13 +15053,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>17</v>
@@ -15091,13 +15097,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>17</v>
@@ -15135,13 +15141,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>17</v>
@@ -15179,13 +15185,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>17</v>
@@ -15223,13 +15229,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>17</v>
@@ -15267,13 +15273,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>17</v>
@@ -15311,13 +15317,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>17</v>
@@ -15355,13 +15361,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>17</v>
@@ -15399,13 +15405,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>17</v>
@@ -15443,13 +15449,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>17</v>
@@ -15487,13 +15493,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>17</v>
@@ -15531,13 +15537,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>17</v>
@@ -15575,13 +15581,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>17</v>
@@ -15619,13 +15625,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>17</v>
@@ -15663,13 +15669,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>17</v>
@@ -15707,13 +15713,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>17</v>
@@ -15751,13 +15757,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>17</v>
@@ -15795,13 +15801,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>17</v>
@@ -15839,13 +15845,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>17</v>
@@ -15883,13 +15889,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>17</v>
@@ -15927,13 +15933,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>17</v>
@@ -15971,13 +15977,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>17</v>
@@ -16015,13 +16021,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>50</v>
@@ -16059,13 +16065,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>17</v>
@@ -16103,13 +16109,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>17</v>
@@ -16147,13 +16153,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>17</v>
@@ -16191,13 +16197,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>17</v>
@@ -16235,13 +16241,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>17</v>
@@ -16279,13 +16285,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>17</v>
@@ -16323,13 +16329,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>17</v>
@@ -16367,13 +16373,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>17</v>
@@ -16411,13 +16417,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>17</v>
@@ -16455,13 +16461,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>17</v>
@@ -16499,13 +16505,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>17</v>
@@ -16543,13 +16549,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>17</v>
@@ -16587,13 +16593,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>17</v>
@@ -16631,13 +16637,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>17</v>
@@ -16675,13 +16681,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>17</v>
@@ -16719,13 +16725,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>17</v>
@@ -16763,13 +16769,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>17</v>
@@ -16807,13 +16813,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>17</v>
@@ -16851,13 +16857,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>17</v>
@@ -16895,13 +16901,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>50</v>
@@ -16939,13 +16945,13 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>17</v>
@@ -16983,13 +16989,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>17</v>
@@ -17027,13 +17033,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>17</v>
@@ -17071,13 +17077,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>17</v>
@@ -17115,13 +17121,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>17</v>
@@ -17159,13 +17165,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>17</v>
@@ -17203,13 +17209,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>17</v>
@@ -17247,13 +17253,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>17</v>
@@ -17291,13 +17297,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>17</v>
@@ -17335,13 +17341,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>17</v>
@@ -17379,13 +17385,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>17</v>
@@ -17423,13 +17429,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>17</v>
@@ -17467,13 +17473,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>17</v>
@@ -17511,13 +17517,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>50</v>
@@ -17555,13 +17561,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>17</v>
@@ -17599,13 +17605,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>17</v>
@@ -17643,13 +17649,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>17</v>
@@ -17687,13 +17693,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>17</v>
@@ -17731,13 +17737,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>17</v>
@@ -17775,13 +17781,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>17</v>
@@ -17819,13 +17825,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>17</v>
@@ -17863,13 +17869,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>50</v>
@@ -17907,13 +17913,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>17</v>
@@ -17951,13 +17957,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>17</v>
@@ -17995,13 +18001,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>17</v>
@@ -18039,13 +18045,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>17</v>
@@ -18083,13 +18089,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>17</v>
@@ -18127,13 +18133,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>17</v>
@@ -18171,13 +18177,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>17</v>
@@ -18215,13 +18221,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>17</v>
@@ -18259,13 +18265,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>17</v>
@@ -18303,13 +18309,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>17</v>
@@ -18347,13 +18353,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>17</v>
@@ -18391,13 +18397,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>17</v>
@@ -18435,13 +18441,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>17</v>
@@ -18479,13 +18485,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>17</v>
@@ -18523,13 +18529,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>17</v>
@@ -18567,13 +18573,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>17</v>
@@ -18611,13 +18617,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>17</v>
@@ -18655,13 +18661,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>17</v>
@@ -18699,13 +18705,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>17</v>
@@ -18743,13 +18749,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>17</v>
@@ -18787,13 +18793,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>17</v>
@@ -18805,7 +18811,7 @@
         <v>81356895</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>31</v>
+        <v>942</v>
       </c>
       <c r="I308" s="1">
         <v>22718.959999999999</v>
@@ -18831,13 +18837,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>17</v>
@@ -18875,13 +18881,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>17</v>
@@ -18919,13 +18925,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>17</v>
@@ -18963,13 +18969,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>17</v>
@@ -19007,13 +19013,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>17</v>
@@ -19051,13 +19057,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>17</v>
@@ -19095,13 +19101,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>17</v>
@@ -19139,13 +19145,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>17</v>
@@ -19183,13 +19189,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>50</v>
@@ -19227,13 +19233,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>17</v>
@@ -19271,13 +19277,13 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>17</v>
@@ -19315,13 +19321,13 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>17</v>
@@ -19359,13 +19365,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>17</v>
@@ -19403,13 +19409,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>17</v>
@@ -19447,13 +19453,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>17</v>
@@ -19491,13 +19497,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>17</v>
@@ -19535,13 +19541,13 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>17</v>
@@ -19579,13 +19585,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>17</v>
@@ -19623,13 +19629,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>17</v>
@@ -19667,13 +19673,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>17</v>
@@ -19711,13 +19717,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>17</v>
@@ -19755,13 +19761,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>17</v>
@@ -19799,13 +19805,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>17</v>
@@ -19843,13 +19849,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>50</v>
@@ -19887,13 +19893,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>17</v>
@@ -19931,13 +19937,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>17</v>
@@ -19975,13 +19981,13 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>17</v>
@@ -20019,13 +20025,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>17</v>
@@ -20063,13 +20069,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>17</v>
@@ -20107,13 +20113,13 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>17</v>
@@ -20151,13 +20157,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>17</v>
@@ -20195,13 +20201,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>17</v>
@@ -20239,13 +20245,13 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>17</v>
@@ -20283,13 +20289,13 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>17</v>
@@ -20327,13 +20333,13 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>17</v>
@@ -20371,13 +20377,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>17</v>
@@ -20415,13 +20421,13 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>17</v>
@@ -20459,13 +20465,13 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>17</v>
@@ -20503,13 +20509,13 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>17</v>
@@ -20547,13 +20553,13 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>17</v>
@@ -20591,13 +20597,13 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>17</v>
@@ -20635,13 +20641,13 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>50</v>
@@ -20679,13 +20685,13 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>17</v>
@@ -20723,13 +20729,13 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>17</v>
@@ -20767,13 +20773,13 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>17</v>
@@ -20811,13 +20817,13 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>17</v>
@@ -20855,13 +20861,13 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>17</v>
@@ -20899,13 +20905,13 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>17</v>
@@ -20943,13 +20949,13 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>17</v>
@@ -20987,13 +20993,13 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>50</v>
@@ -21031,13 +21037,13 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>17</v>
@@ -21075,13 +21081,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>17</v>
@@ -21119,13 +21125,13 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>17</v>
@@ -21163,13 +21169,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>17</v>
@@ -21207,13 +21213,13 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>17</v>
@@ -21251,13 +21257,13 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>17</v>
@@ -21295,13 +21301,13 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>17</v>
@@ -21339,13 +21345,13 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>17</v>
@@ -21383,13 +21389,13 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>17</v>
@@ -21427,13 +21433,13 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>17</v>
@@ -21471,13 +21477,13 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>17</v>
@@ -21515,13 +21521,13 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>17</v>
@@ -21559,13 +21565,13 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>17</v>
@@ -21603,13 +21609,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>17</v>
@@ -21647,13 +21653,13 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>17</v>
@@ -21691,13 +21697,13 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>17</v>
@@ -21735,13 +21741,13 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>50</v>
@@ -21779,13 +21785,13 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>17</v>
@@ -21823,13 +21829,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>17</v>
@@ -21867,13 +21873,13 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>17</v>
@@ -21911,13 +21917,13 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>17</v>
@@ -21955,13 +21961,13 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>17</v>
@@ -21999,13 +22005,13 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>17</v>
@@ -22043,13 +22049,13 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>50</v>
@@ -22087,13 +22093,13 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>17</v>
@@ -22131,13 +22137,13 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>17</v>
@@ -22175,13 +22181,13 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>17</v>
@@ -22219,13 +22225,13 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>17</v>
@@ -22263,13 +22269,13 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>17</v>
@@ -22307,13 +22313,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>17</v>
@@ -22351,13 +22357,13 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>17</v>
@@ -22395,13 +22401,13 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>50</v>
@@ -22439,13 +22445,13 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>17</v>
@@ -22483,13 +22489,13 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>17</v>
@@ -22527,13 +22533,13 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>17</v>
@@ -22571,13 +22577,13 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>17</v>
@@ -22615,13 +22621,13 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>17</v>
@@ -22659,13 +22665,13 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>17</v>
@@ -22703,13 +22709,13 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>17</v>
@@ -22747,13 +22753,13 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>17</v>
@@ -22791,13 +22797,13 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>17</v>
@@ -22835,13 +22841,13 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>17</v>
@@ -22879,13 +22885,13 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>17</v>
@@ -22923,13 +22929,13 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>17</v>
@@ -22967,13 +22973,13 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>17</v>
@@ -23011,13 +23017,13 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>17</v>
@@ -23055,13 +23061,13 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>17</v>
@@ -23099,13 +23105,13 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>17</v>
@@ -23143,13 +23149,13 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>17</v>
@@ -23187,13 +23193,13 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>17</v>
@@ -23231,13 +23237,13 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>17</v>
@@ -23275,13 +23281,13 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>17</v>
@@ -23319,13 +23325,13 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>17</v>
@@ -23363,13 +23369,13 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>17</v>
@@ -23407,13 +23413,13 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>17</v>
@@ -23451,13 +23457,13 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>17</v>
@@ -23495,13 +23501,13 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>17</v>
@@ -23539,13 +23545,13 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>17</v>
@@ -23583,13 +23589,13 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>17</v>
@@ -23627,13 +23633,13 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>50</v>
@@ -23671,13 +23677,13 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>50</v>
@@ -23715,13 +23721,13 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>17</v>
@@ -23759,13 +23765,13 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>17</v>
@@ -23803,13 +23809,13 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>17</v>
@@ -23847,13 +23853,13 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>17</v>
@@ -23891,13 +23897,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>17</v>
@@ -23935,13 +23941,13 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>17</v>
@@ -23979,13 +23985,13 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>17</v>
@@ -24023,13 +24029,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>17</v>
@@ -24067,13 +24073,13 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>50</v>
@@ -24111,13 +24117,13 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>17</v>
@@ -24155,13 +24161,13 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>17</v>
@@ -24199,13 +24205,13 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>50</v>
@@ -24243,13 +24249,13 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>17</v>
@@ -24287,13 +24293,13 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>50</v>
@@ -24331,13 +24337,13 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>17</v>
@@ -24375,13 +24381,13 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>17</v>
@@ -24419,13 +24425,13 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>17</v>
@@ -24463,13 +24469,13 @@
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>17</v>
@@ -24507,13 +24513,13 @@
         <v>437</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>17</v>
@@ -24551,13 +24557,13 @@
         <v>438</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>17</v>
@@ -24595,13 +24601,13 @@
         <v>439</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>50</v>
@@ -24639,13 +24645,13 @@
         <v>440</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>17</v>
@@ -24683,13 +24689,13 @@
         <v>441</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>17</v>
@@ -24727,13 +24733,13 @@
         <v>442</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>50</v>
@@ -24771,13 +24777,13 @@
         <v>443</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="E444" s="1" t="s">
         <v>17</v>
@@ -24815,13 +24821,13 @@
         <v>444</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="E445" s="1" t="s">
         <v>17</v>
@@ -24833,7 +24839,7 @@
         <v>440318940</v>
       </c>
       <c r="H445" s="1" t="s">
-        <v>31</v>
+        <v>942</v>
       </c>
       <c r="I445" s="1">
         <v>15179.45</v>
@@ -24859,13 +24865,13 @@
         <v>445</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="E446" s="1" t="s">
         <v>17</v>
@@ -24903,13 +24909,13 @@
         <v>446</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="E447" s="1" t="s">
         <v>17</v>
@@ -24947,13 +24953,13 @@
         <v>447</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="E448" s="1" t="s">
         <v>17</v>
@@ -24991,13 +24997,13 @@
         <v>448</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="E449" s="1" t="s">
         <v>17</v>
@@ -25035,13 +25041,13 @@
         <v>449</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="E450" s="1" t="s">
         <v>17</v>
@@ -25079,13 +25085,13 @@
         <v>450</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="E451" s="1" t="s">
         <v>17</v>
@@ -25123,13 +25129,13 @@
         <v>451</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="E452" s="1" t="s">
         <v>17</v>
@@ -25167,13 +25173,13 @@
         <v>452</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="E453" s="1" t="s">
         <v>17</v>
@@ -25211,13 +25217,13 @@
         <v>453</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="E454" s="1" t="s">
         <v>17</v>
@@ -25255,13 +25261,13 @@
         <v>454</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="E455" s="1" t="s">
         <v>17</v>
@@ -25299,13 +25305,13 @@
         <v>455</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>17</v>
@@ -25343,13 +25349,13 @@
         <v>456</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="E457" s="1" t="s">
         <v>17</v>
@@ -25387,13 +25393,13 @@
         <v>457</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="E458" s="1" t="s">
         <v>17</v>
@@ -25431,13 +25437,13 @@
         <v>458</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="E459" s="1" t="s">
         <v>17</v>
@@ -25475,13 +25481,13 @@
         <v>459</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="E460" s="1" t="s">
         <v>17</v>
@@ -25519,13 +25525,13 @@
         <v>460</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="E461" s="1" t="s">
         <v>17</v>
@@ -25563,13 +25569,13 @@
         <v>461</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="E462" s="1" t="s">
         <v>17</v>
@@ -25607,13 +25613,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="E463" s="1" t="s">
         <v>17</v>
@@ -25651,13 +25657,13 @@
         <v>463</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="E464" s="1" t="s">
         <v>17</v>
@@ -25695,13 +25701,13 @@
         <v>464</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="E465" s="1" t="s">
         <v>17</v>
@@ -25739,13 +25745,13 @@
         <v>465</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>17</v>
@@ -25783,13 +25789,13 @@
         <v>466</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="E467" s="1" t="s">
         <v>17</v>
@@ -25827,13 +25833,13 @@
         <v>467</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="E468" s="1" t="s">
         <v>17</v>
@@ -25871,13 +25877,13 @@
         <v>468</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="E469" s="1" t="s">
         <v>17</v>
@@ -25915,13 +25921,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="E470" s="1" t="s">
         <v>17</v>
@@ -25959,13 +25965,13 @@
         <v>470</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="E471" s="1" t="s">
         <v>17</v>
@@ -26003,13 +26009,13 @@
         <v>471</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="E472" s="1" t="s">
         <v>17</v>
@@ -26047,13 +26053,13 @@
         <v>472</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="E473" s="1" t="s">
         <v>17</v>
@@ -26091,13 +26097,13 @@
         <v>473</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="E474" s="1" t="s">
         <v>17</v>
@@ -26135,13 +26141,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="E475" s="1" t="s">
         <v>17</v>
@@ -26179,13 +26185,13 @@
         <v>475</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="E476" s="1" t="s">
         <v>17</v>
@@ -26223,43 +26229,43 @@
         <v>476</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>626</v>
+        <v>1448</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>1445</v>
-      </c>
-      <c r="E477" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F477" s="1" t="e">
-        <v>#N/A</v>
+        <v>1449</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F477" s="1">
+        <v>91.570660000000004</v>
       </c>
       <c r="G477" s="1">
-        <v>537851870</v>
-      </c>
-      <c r="H477" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I477" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J477" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K477" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L477" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M477" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N477" s="1" t="e">
-        <v>#N/A</v>
+        <v>7972851000</v>
+      </c>
+      <c r="H477" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="I477" s="1">
+        <v>730079.2</v>
+      </c>
+      <c r="J477" s="1">
+        <v>1793351027.7599599</v>
+      </c>
+      <c r="K477" s="1">
+        <v>1422115806.2409599</v>
+      </c>
+      <c r="L477" s="1">
+        <v>1487011970.8496499</v>
+      </c>
+      <c r="M477" s="1">
+        <v>1731939331.07304</v>
+      </c>
+      <c r="N477" s="1">
+        <v>1593311645.67646</v>
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.2">
@@ -26267,13 +26273,13 @@
         <v>477</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="E478" s="1" t="s">
         <v>17</v>
@@ -26311,13 +26317,13 @@
         <v>478</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="E479" s="1" t="s">
         <v>50</v>
@@ -26355,13 +26361,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>1454</v>
+        <v>1458</v>
       </c>
       <c r="E480" s="1" t="s">
         <v>17</v>
@@ -26399,13 +26405,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="E481" s="1" t="s">
         <v>17</v>
@@ -26443,13 +26449,13 @@
         <v>481</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="E482" s="1" t="s">
         <v>17</v>
@@ -26487,13 +26493,13 @@
         <v>482</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="E483" s="1" t="s">
         <v>17</v>
@@ -26531,13 +26537,13 @@
         <v>483</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="E484" s="1" t="s">
         <v>17</v>
@@ -26575,13 +26581,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="E485" s="1" t="s">
         <v>17</v>
@@ -26619,13 +26625,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="E486" s="1" t="s">
         <v>17</v>
@@ -26663,13 +26669,13 @@
         <v>486</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
       <c r="E487" s="1" t="s">
         <v>17</v>
@@ -26707,13 +26713,13 @@
         <v>487</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="E488" s="1" t="s">
         <v>50</v>
@@ -26751,13 +26757,13 @@
         <v>488</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="E489" s="1" t="s">
         <v>17</v>
@@ -26795,13 +26801,13 @@
         <v>489</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="E490" s="1" t="s">
         <v>17</v>
@@ -26839,13 +26845,13 @@
         <v>490</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="E491" s="1" t="s">
         <v>17</v>
@@ -26883,13 +26889,13 @@
         <v>491</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="E492" s="1" t="s">
         <v>17</v>
@@ -26927,13 +26933,13 @@
         <v>492</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="E493" s="1" t="s">
         <v>50</v>
@@ -26971,13 +26977,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="E494" s="1" t="s">
         <v>17</v>
@@ -27015,13 +27021,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="E495" s="1" t="s">
         <v>17</v>
@@ -27059,13 +27065,13 @@
         <v>495</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="E496" s="1" t="s">
         <v>17</v>
@@ -27103,13 +27109,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="E497" s="1" t="s">
         <v>17</v>
@@ -27147,13 +27153,13 @@
         <v>497</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1506</v>
+        <v>1510</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="E498" s="1" t="s">
         <v>17</v>
@@ -27191,13 +27197,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="E499" s="1" t="s">
         <v>17</v>
@@ -27235,13 +27241,13 @@
         <v>499</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="E500" s="1" t="s">
         <v>17</v>
@@ -27279,13 +27285,13 @@
         <v>500</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="E501" s="1" t="s">
         <v>17</v>
